--- a/biology/Zoologie/Pierre_Avenas/Pierre_Avenas.xlsx
+++ b/biology/Zoologie/Pierre_Avenas/Pierre_Avenas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre Avenas, né en 1946, est un haut fonctionnaire, chercheur et écrivain français.
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Pierre Avenas a fait des études à l’École polytechnique et à l’École des Mines de Paris[1]. Il a notamment dirigé le Centre de mise en forme des matériaux (CEMEF), l'un des centres de recherche de l’École des Mines de Paris, installé à Sophia Antipolis en 1976, et dont les recherches portent sur les procédés de transformation des métaux et des polymères. Il a collaboré au ministère de l’Industrie de 1979 à 1981 (politique de recherche et d’innovation) avant de travailler dans l’industrie chimique : il a notamment été directeur de la recherche d'Elf Atochem, puis directeur de la R&amp;D chimie de TOTAL jusqu'en 2004[1].
-S’intéressant également aux sciences naturelles et à la linguistique, il est connu du grand public pour avoir publié plusieurs volumes, écrits avec Henriette Walter, sur l’histoire des noms des animaux et des arbres en français et en d'autres langues européennes. Plus récemment, il a publié un livre sur les noms des éléments et substances chimiques[2] à l'occasion de l'année 2019, décrétée Année du tableau périodique des éléments chimiques par l'UNESCO[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Pierre Avenas a fait des études à l’École polytechnique et à l’École des Mines de Paris. Il a notamment dirigé le Centre de mise en forme des matériaux (CEMEF), l'un des centres de recherche de l’École des Mines de Paris, installé à Sophia Antipolis en 1976, et dont les recherches portent sur les procédés de transformation des métaux et des polymères. Il a collaboré au ministère de l’Industrie de 1979 à 1981 (politique de recherche et d’innovation) avant de travailler dans l’industrie chimique : il a notamment été directeur de la recherche d'Elf Atochem, puis directeur de la R&amp;D chimie de TOTAL jusqu'en 2004.
+S’intéressant également aux sciences naturelles et à la linguistique, il est connu du grand public pour avoir publié plusieurs volumes, écrits avec Henriette Walter, sur l’histoire des noms des animaux et des arbres en français et en d'autres langues européennes. Plus récemment, il a publié un livre sur les noms des éléments et substances chimiques à l'occasion de l'année 2019, décrétée Année du tableau périodique des éléments chimiques par l'UNESCO.
 Il publie depuis plusieurs années des rubriques étymologiques mensuelles dans deux revues :
-L'Actualité chimique, revue de la Société chimique de France (SCF)[4]
-La Jaune et la Rouge, revue de l'École polytechnique[5]</t>
+L'Actualité chimique, revue de la Société chimique de France (SCF)
+La Jaune et la Rouge, revue de l'École polytechnique</t>
         </is>
       </c>
     </row>
@@ -545,7 +559,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>ouvrages sur les polymères
 Mise en forme des polymères, Approche thermomécanique de la plasturgie, avec Jean-François Agassant, Jean-Philippe Sergent, Bruno Vergnes, Michel Vincent, Lavoisier, 4e éd. 2014, (1re éd. 1982), préface de Pierre-Gilles de Gennes  (ISBN 978-2-7430-1549-7)
@@ -558,14 +574,14 @@
 Bonobo, Gazelle et Cie, 2008 (autour des mammifères sauvages)
 La Mystérieuse Histoire du nom des oiseaux : Du minuscule roitelet à l'albatros géant, Robert Laffont, 2007  (ISBN 978-2-221-10835-2)
 La Fabuleuse Histoire du nom des poissons : Du tout petit poisson-clown au très grand requin blanc, Robert Laffont, 2011  (ISBN 978-2-221-11356-1)
-a obtenu en 2012 le prix Ar Mor (d) (« La Mer ») de la Ville de Vannes[6].
+a obtenu en 2012 le prix Ar Mor (d) (« La Mer ») de la Ville de Vannes.
 La Majestueuse Histoire du nom des arbres : Du modeste noisetier au séquoia géant, Robert Laffont, 2017  (ISBN 978-2-221-13622-5)
 réédité en 2022 au format de poche dans la nouvelle collection « Arion (d) » chez le même éditeur  (ISBN 978-2-221-25997-9)
-a obtenu le prix Émile-Gallé (d) 2018 de la Société centrale d'horticulture de Nancy[7]
+a obtenu le prix Émile-Gallé (d) 2018 de la Société centrale d'horticulture de Nancy
 ouvrage d’étymologie co-édité par la Société française de chimie
-La Prodigieuse Histoire du nom des éléments, EDP Sciences/SCF, 2018  (ISBN 978-2-7598-2302-4)[3]
+La Prodigieuse Histoire du nom des éléments, EDP Sciences/SCF, 2018  (ISBN 978-2-7598-2302-4)
 avec la collaboration de la journaliste scientifique Minh-Thu Dinh-Audouin (d)
-a obtenu le Prix spécial 2019 de l'Académie nationale des sciences, belles-lettres et arts de Bordeaux[8]
+a obtenu le Prix spécial 2019 de l'Académie nationale des sciences, belles-lettres et arts de Bordeaux
 version anglaise : The Amazing History of Elements Names, EDP Sciences/SCF, 2020  (ISBN 978-2-7598-2464-9) ou  (ISBN 978-2-7598-2497-7) (version électronique)
 préfacé par Jacques Livage, de l’Académie des sciences, professeur au Collège de France</t>
         </is>
@@ -595,9 +611,11 @@
           <t>Podcasts</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les ouvrages d’étymologie sur les noms des mammifères, oiseaux, poissons et arbres font l’objet du podcast « NOMEN » réalisé et diffusé par l'association Baleine sous gravillon, créée en 2021 par le journaliste et podcasteur Marc Mortelmans (d) [9].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les ouvrages d’étymologie sur les noms des mammifères, oiseaux, poissons et arbres font l’objet du podcast « NOMEN » réalisé et diffusé par l'association Baleine sous gravillon, créée en 2021 par le journaliste et podcasteur Marc Mortelmans (d) .
 </t>
         </is>
       </c>
